--- a/wwwroot/Data/StudentsResult.xlsx
+++ b/wwwroot/Data/StudentsResult.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dESDXDSXSDXKJWQA\source\repos\Result\wwwroot\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A816877-C837-43CE-B115-0BE917E705F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87103E88-9BAE-4C79-A2B8-F2AFFE46AE23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{27161FC8-9DDE-4C5D-8540-C771EDF78C73}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4028" uniqueCount="951">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4028" uniqueCount="952">
   <si>
     <t>Serial</t>
   </si>
@@ -2895,6 +2895,9 @@
   </si>
   <si>
     <t>Muhammad Yaqoob</t>
+  </si>
+  <si>
+    <t>Khadija Jameel</t>
   </si>
 </sst>
 </file>
@@ -3255,12 +3258,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC89E9C9-AFE0-4435-B4A9-6F1AB063549E}">
   <dimension ref="A1:Y329"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="5" max="5" width="20.21875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.33203125" customWidth="1"/>
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
@@ -11333,7 +11337,7 @@
         <v>45677</v>
       </c>
       <c r="D111" t="s">
-        <v>297</v>
+        <v>951</v>
       </c>
       <c r="E111" t="s">
         <v>811</v>
